--- a/Stilling-Test2.xlsx
+++ b/Stilling-Test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Projects\holdquizzen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1046F35E-AE62-4D9D-A799-D8B5FC37AF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C38314-740F-4504-9B9C-090E4DBEF144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="2760" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34680" yWindow="3090" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>Navn 10</t>
   </si>
   <si>
-    <t>Navn 11</t>
-  </si>
-  <si>
     <t>Navn 12</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>Bord 13</t>
+  </si>
+  <si>
+    <t>De Kolde Fra Kassen</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +592,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -668,7 +668,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4">
         <v>43</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3">
@@ -822,15 +822,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B12" s="3">
+        <v>100</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -840,13 +838,13 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(B12:L12)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -868,7 +866,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -890,7 +888,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -912,7 +910,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -934,7 +932,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -956,7 +954,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
